--- a/DateBase/orders/Nhat 48_2025-12-1.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-1.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131055101108260</v>
+        <v>012131055101108265</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-1.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>305_彩星 宝蓝_Tinted Gypso blue_undefined_0.5kg</v>
+      </c>
+      <c r="F12" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>305_彩星 宝蓝_Tinted Gypso blue_undefined_0.5kg</v>
+      </c>
+      <c r="F14" t="str">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +614,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131055101108265</v>
+        <v>0121310551011082654928</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-1.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,9 +554,92 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>125_绣球蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F23" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -614,7 +697,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121310551011082654928</v>
+        <v>012131055101108265492898.55610102115300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-1.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-1.xlsx
@@ -636,6 +636,9 @@
       <c r="C24" t="str">
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
+      <c r="F24" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -697,7 +700,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131055101108265492898.55610102115300</v>
+        <v>012131055101108265492898.556101021153020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-1.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,9 +640,160 @@
         <v>20</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>3</v>
+      </c>
+      <c r="C25" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>4</v>
+      </c>
+      <c r="C31" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -700,7 +851,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131055101108265492898.556101021153020</v>
+        <v>012131055101108265492898.5561010211530201011101510684.541515102071010105</v>
       </c>
     </row>
   </sheetData>
